--- a/zywork-document/documents/数据库设计1.0.xlsx
+++ b/zywork-document/documents/数据库设计1.0.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="8580"/>
+    <workbookView windowWidth="28695" windowHeight="14070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353">
   <si>
     <t>公司表t_company</t>
   </si>
@@ -557,6 +557,24 @@
   </si>
   <si>
     <t>酒店编号，来源于t_hotel表</t>
+  </si>
+  <si>
+    <t>房型类型表t_house_type</t>
+  </si>
+  <si>
+    <t>房型类型编号,AI</t>
+  </si>
+  <si>
+    <t>房型类型名称</t>
+  </si>
+  <si>
+    <t>房型类型描述</t>
+  </si>
+  <si>
+    <t>房型类型创建时间</t>
+  </si>
+  <si>
+    <t>公司的编号，来源于t_company</t>
   </si>
   <si>
     <t>房型表t_house</t>
@@ -1065,10 +1083,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1087,29 +1105,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1125,28 +1120,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1155,31 +1128,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1209,6 +1159,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1217,8 +1202,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1231,9 +1239,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1245,7 +1263,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1257,25 +1311,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1287,13 +1335,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1305,13 +1377,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,25 +1413,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1353,79 +1443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1436,21 +1454,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1479,25 +1482,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1536,160 +1530,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1715,9 +1733,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2070,19 +2085,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G316"/>
+  <dimension ref="A1:G325"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144:G144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="5.50442477876106" customWidth="1"/>
+    <col min="1" max="1" width="5.50833333333333" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="5" width="13.8761061946903" customWidth="1"/>
-    <col min="6" max="6" width="9.24778761061947" style="1" customWidth="1"/>
-    <col min="7" max="7" width="47.9557522123894" style="2" customWidth="1"/>
+    <col min="3" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="47.9583333333333" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2433,24 +2448,24 @@
       </c>
     </row>
     <row r="21" ht="29" customHeight="1" spans="1:7">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -4395,16 +4410,19 @@
         <v>2</v>
       </c>
       <c r="B138" t="s">
+        <v>42</v>
+      </c>
+      <c r="C138" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" t="s">
+        <v>15</v>
+      </c>
+      <c r="E138" t="s">
+        <v>11</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C138" t="s">
-        <v>18</v>
-      </c>
-      <c r="E138" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4412,16 +4430,16 @@
         <v>3</v>
       </c>
       <c r="B139" t="s">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="C139" t="s">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4429,16 +4447,19 @@
         <v>4</v>
       </c>
       <c r="B140" t="s">
-        <v>186</v>
+        <v>32</v>
       </c>
       <c r="C140" t="s">
-        <v>157</v>
+        <v>33</v>
       </c>
       <c r="E140" t="s">
         <v>11</v>
       </c>
+      <c r="F140" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="G140" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4446,16 +4467,19 @@
         <v>5</v>
       </c>
       <c r="B141" t="s">
-        <v>188</v>
+        <v>36</v>
       </c>
       <c r="C141" t="s">
-        <v>157</v>
+        <v>37</v>
       </c>
       <c r="E141" t="s">
         <v>11</v>
       </c>
+      <c r="F141" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="G141" s="2" t="s">
-        <v>189</v>
+        <v>39</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4463,258 +4487,249 @@
         <v>6</v>
       </c>
       <c r="B142" t="s">
-        <v>190</v>
+        <v>46</v>
       </c>
       <c r="C142" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="D142" t="s">
+        <v>114</v>
       </c>
       <c r="E142" t="s">
         <v>11</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="A143">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="5"/>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G145" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="B143" t="s">
-        <v>92</v>
-      </c>
-      <c r="C143" t="s">
-        <v>192</v>
-      </c>
-      <c r="E143" t="s">
-        <v>27</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="A144">
-        <v>8</v>
-      </c>
-      <c r="B144" t="s">
-        <v>178</v>
-      </c>
-      <c r="C144" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" t="s">
-        <v>114</v>
-      </c>
-      <c r="E144" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145">
-        <v>9</v>
-      </c>
-      <c r="B145" t="s">
-        <v>171</v>
-      </c>
-      <c r="C145" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" t="s">
-        <v>114</v>
-      </c>
-      <c r="E145" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="B146" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" t="s">
         <v>10</v>
       </c>
-      <c r="B146" t="s">
-        <v>196</v>
-      </c>
-      <c r="C146" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" t="s">
-        <v>114</v>
-      </c>
       <c r="E146" t="s">
         <v>11</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B147" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C147" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E147" t="s">
         <v>11</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B148" t="s">
-        <v>32</v>
+        <v>190</v>
       </c>
       <c r="C148" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="E148" t="s">
         <v>11</v>
       </c>
-      <c r="F148" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="G148" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B149" t="s">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="C149" t="s">
+        <v>157</v>
+      </c>
+      <c r="E149" t="s">
+        <v>11</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150">
+        <v>5</v>
+      </c>
+      <c r="B150" t="s">
+        <v>194</v>
+      </c>
+      <c r="C150" t="s">
+        <v>157</v>
+      </c>
+      <c r="E150" t="s">
+        <v>11</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151">
+        <v>6</v>
+      </c>
+      <c r="B151" t="s">
+        <v>196</v>
+      </c>
+      <c r="C151" t="s">
         <v>37</v>
       </c>
-      <c r="E149" t="s">
-        <v>11</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
-      <c r="A151" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="5"/>
+      <c r="E151" t="s">
+        <v>11</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D152" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E152" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F152" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G152" s="8" t="s">
+      <c r="A152">
         <v>7</v>
+      </c>
+      <c r="B152" t="s">
+        <v>92</v>
+      </c>
+      <c r="C152" t="s">
+        <v>198</v>
+      </c>
+      <c r="E152" t="s">
+        <v>27</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>178</v>
       </c>
       <c r="C153" t="s">
         <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="E153" t="s">
         <v>11</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B154" t="s">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="C154" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="E154" t="s">
         <v>11</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B155" t="s">
-        <v>92</v>
+        <v>202</v>
       </c>
       <c r="C155" t="s">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="D155" t="s">
+        <v>114</v>
       </c>
       <c r="E155" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B156" t="s">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="C156" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E156" t="s">
         <v>11</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>205</v>
@@ -4722,90 +4737,90 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157">
+        <v>12</v>
+      </c>
+      <c r="B157" t="s">
+        <v>32</v>
+      </c>
+      <c r="C157" t="s">
+        <v>33</v>
+      </c>
+      <c r="E157" t="s">
+        <v>11</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158">
+        <v>13</v>
+      </c>
+      <c r="B158" t="s">
+        <v>36</v>
+      </c>
+      <c r="C158" t="s">
+        <v>37</v>
+      </c>
+      <c r="E158" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="4"/>
+      <c r="G160" s="5"/>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E161" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B157" t="s">
-        <v>36</v>
-      </c>
-      <c r="C157" t="s">
-        <v>37</v>
-      </c>
-      <c r="E157" t="s">
-        <v>11</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B159" s="3"/>
-      <c r="C159" s="3"/>
-      <c r="D159" s="3"/>
-      <c r="E159" s="3"/>
-      <c r="F159" s="4"/>
-      <c r="G159" s="5"/>
-    </row>
-    <row r="160" spans="1:7">
-      <c r="A160" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D160" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E160" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F160" s="7" t="s">
+      <c r="F161" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G160" s="8" t="s">
+      <c r="G161" s="8" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
-      <c r="A161">
-        <v>1</v>
-      </c>
-      <c r="B161" t="s">
-        <v>8</v>
-      </c>
-      <c r="C161" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" t="s">
-        <v>10</v>
-      </c>
-      <c r="E161" t="s">
-        <v>11</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B162" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
         <v>11</v>
@@ -4816,16 +4831,19 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B163" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="C163" t="s">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="D163" t="s">
+        <v>15</v>
       </c>
       <c r="E163" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>209</v>
@@ -4833,19 +4851,16 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B164" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="C164" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>210</v>
@@ -4853,153 +4868,150 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165">
+        <v>4</v>
+      </c>
+      <c r="B165" t="s">
+        <v>32</v>
+      </c>
+      <c r="C165" t="s">
+        <v>33</v>
+      </c>
+      <c r="E165" t="s">
+        <v>11</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166">
         <v>5</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B166" t="s">
         <v>36</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C166" t="s">
         <v>37</v>
       </c>
-      <c r="E165" t="s">
-        <v>11</v>
-      </c>
-      <c r="F165" s="1" t="s">
+      <c r="E166" t="s">
+        <v>11</v>
+      </c>
+      <c r="F166" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G165" s="2" t="s">
+      <c r="G166" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
-      <c r="A167" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
-      <c r="E167" s="3"/>
-      <c r="F167" s="4"/>
-      <c r="G167" s="5"/>
-    </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="6" t="s">
+      <c r="A168" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="4"/>
+      <c r="G168" s="5"/>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B169" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C168" s="6" t="s">
+      <c r="C169" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D168" s="6" t="s">
+      <c r="D169" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E168" s="6" t="s">
+      <c r="E169" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F168" s="7" t="s">
+      <c r="F169" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G168" s="8" t="s">
+      <c r="G169" s="8" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
-      <c r="A169">
-        <v>1</v>
-      </c>
-      <c r="B169" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" t="s">
-        <v>9</v>
-      </c>
-      <c r="D169" t="s">
-        <v>10</v>
-      </c>
-      <c r="E169" t="s">
-        <v>11</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B170" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
         <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
         <v>11</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>95</v>
+        <v>213</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B171" t="s">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D171" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="E171" t="s">
         <v>11</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B172" t="s">
-        <v>171</v>
+        <v>92</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B173" t="s">
-        <v>215</v>
+        <v>32</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="E173" t="s">
         <v>11</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>216</v>
@@ -5007,115 +5019,104 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174">
+        <v>5</v>
+      </c>
+      <c r="B174" t="s">
+        <v>36</v>
+      </c>
+      <c r="C174" t="s">
+        <v>37</v>
+      </c>
+      <c r="E174" t="s">
+        <v>11</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B176" s="3"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
+      <c r="F176" s="4"/>
+      <c r="G176" s="5"/>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F177" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B174" t="s">
-        <v>217</v>
-      </c>
-      <c r="C174" t="s">
-        <v>9</v>
-      </c>
-      <c r="D174" t="s">
-        <v>114</v>
-      </c>
-      <c r="E174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="A175">
+      <c r="G177" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="B175" t="s">
-        <v>219</v>
-      </c>
-      <c r="C175" t="s">
-        <v>89</v>
-      </c>
-      <c r="E175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176">
-        <v>8</v>
-      </c>
-      <c r="B176" t="s">
-        <v>221</v>
-      </c>
-      <c r="C176" t="s">
-        <v>89</v>
-      </c>
-      <c r="E176" t="s">
-        <v>11</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
-      <c r="A177">
-        <v>9</v>
-      </c>
-      <c r="B177" t="s">
-        <v>223</v>
-      </c>
-      <c r="C177" t="s">
-        <v>21</v>
-      </c>
-      <c r="E177" t="s">
-        <v>11</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178">
+        <v>1</v>
+      </c>
+      <c r="B178" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" t="s">
         <v>10</v>
       </c>
-      <c r="B178" t="s">
-        <v>225</v>
-      </c>
-      <c r="C178" t="s">
-        <v>14</v>
-      </c>
       <c r="E178" t="s">
         <v>11</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="179" ht="27" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B179" t="s">
-        <v>227</v>
+        <v>46</v>
       </c>
       <c r="C179" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="D179" t="s">
+        <v>114</v>
       </c>
       <c r="E179" t="s">
         <v>11</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="180" ht="27" spans="1:7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B180" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
       <c r="C180" t="s">
         <v>9</v>
@@ -5124,447 +5125,461 @@
         <v>114</v>
       </c>
       <c r="E180" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B181" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C181" t="s">
-        <v>157</v>
+        <v>9</v>
+      </c>
+      <c r="D181" t="s">
+        <v>114</v>
       </c>
       <c r="E181" t="s">
         <v>11</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B182" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C182" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="D182" t="s">
+        <v>114</v>
       </c>
       <c r="E182" t="s">
         <v>11</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B183" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C183" t="s">
-        <v>157</v>
+        <v>9</v>
+      </c>
+      <c r="D183" t="s">
+        <v>114</v>
       </c>
       <c r="E183" t="s">
         <v>11</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B184" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C184" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="E184" t="s">
         <v>11</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B185" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C185" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="E185" t="s">
         <v>11</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B186" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C186" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="E186" t="s">
         <v>11</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B187" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C187" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="E187" t="s">
         <v>11</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="188" ht="27" spans="1:7">
       <c r="A188">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B188" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
-      </c>
-      <c r="D188" t="s">
+        <v>37</v>
+      </c>
+      <c r="E188" t="s">
+        <v>11</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="189" ht="27" spans="1:7">
+      <c r="A189">
+        <v>12</v>
+      </c>
+      <c r="B189" t="s">
+        <v>235</v>
+      </c>
+      <c r="C189" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" t="s">
         <v>114</v>
       </c>
-      <c r="E188" t="s">
-        <v>11</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
-      <c r="A189">
-        <v>21</v>
-      </c>
-      <c r="B189" t="s">
-        <v>246</v>
-      </c>
-      <c r="C189" t="s">
-        <v>33</v>
-      </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B190" t="s">
-        <v>248</v>
+        <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="E190" t="s">
         <v>11</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B191" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C191" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E191" t="s">
         <v>11</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B192" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C192" t="s">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="E192" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="193" ht="27" spans="1:7">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
       <c r="A193">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B193" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C193" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="E193" t="s">
         <v>11</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B194" t="s">
-        <v>32</v>
+        <v>244</v>
       </c>
       <c r="C194" t="s">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="E194" t="s">
         <v>11</v>
       </c>
-      <c r="F194" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="G194" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="195" ht="27" spans="1:7">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B195" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C195" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="E195" t="s">
         <v>11</v>
       </c>
-      <c r="F195" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="G195" s="2" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B196" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C196" t="s">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="E196" t="s">
         <v>11</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B197" t="s">
-        <v>36</v>
+        <v>250</v>
       </c>
       <c r="C197" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="D197" t="s">
+        <v>114</v>
       </c>
       <c r="E197" t="s">
         <v>11</v>
       </c>
-      <c r="F197" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="G197" s="2" t="s">
-        <v>39</v>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198">
+        <v>21</v>
+      </c>
+      <c r="B198" t="s">
+        <v>252</v>
+      </c>
+      <c r="C198" t="s">
+        <v>33</v>
+      </c>
+      <c r="E198" t="s">
+        <v>11</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B199" s="3"/>
-      <c r="C199" s="3"/>
-      <c r="D199" s="3"/>
-      <c r="E199" s="3"/>
-      <c r="F199" s="4"/>
-      <c r="G199" s="5"/>
+      <c r="A199">
+        <v>22</v>
+      </c>
+      <c r="B199" t="s">
+        <v>254</v>
+      </c>
+      <c r="C199" t="s">
+        <v>33</v>
+      </c>
+      <c r="E199" t="s">
+        <v>11</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C200" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D200" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E200" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F200" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G200" s="8" t="s">
-        <v>7</v>
+      <c r="A200">
+        <v>23</v>
+      </c>
+      <c r="B200" t="s">
+        <v>256</v>
+      </c>
+      <c r="C200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E200" t="s">
+        <v>11</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>258</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
-      </c>
-      <c r="D201" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="202" ht="27" spans="1:7">
       <c r="A202">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B202" t="s">
-        <v>42</v>
+        <v>260</v>
       </c>
       <c r="C202" t="s">
-        <v>14</v>
-      </c>
-      <c r="D202" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E202" t="s">
         <v>11</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B203" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="C203" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E203" t="s">
+        <v>11</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="204" ht="27" spans="1:7">
+      <c r="A204">
         <v>27</v>
       </c>
-      <c r="G203" s="2" t="s">
+      <c r="B204" t="s">
+        <v>263</v>
+      </c>
+      <c r="C204" t="s">
+        <v>37</v>
+      </c>
+      <c r="E204" t="s">
+        <v>11</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G204" s="2" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7">
-      <c r="A204">
-        <v>4</v>
-      </c>
-      <c r="B204" t="s">
-        <v>32</v>
-      </c>
-      <c r="C204" t="s">
-        <v>33</v>
-      </c>
-      <c r="E204" t="s">
-        <v>11</v>
-      </c>
-      <c r="F204" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G204" s="2" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B205" t="s">
-        <v>46</v>
+        <v>265</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
-      </c>
-      <c r="D205" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="E205" t="s">
         <v>11</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>95</v>
+        <v>266</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B206" t="s">
         <v>36</v>
@@ -5584,7 +5599,7 @@
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -5633,21 +5648,21 @@
         <v>11</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="211" ht="27" spans="1:7">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
       <c r="A211">
         <v>2</v>
       </c>
       <c r="B211" t="s">
-        <v>268</v>
+        <v>42</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D211" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="E211" t="s">
         <v>11</v>
@@ -5661,19 +5676,16 @@
         <v>3</v>
       </c>
       <c r="B212" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
-      </c>
-      <c r="D212" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="E212" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>95</v>
+        <v>270</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5681,19 +5693,19 @@
         <v>4</v>
       </c>
       <c r="B213" t="s">
-        <v>178</v>
+        <v>32</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
-      </c>
-      <c r="D213" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="E213" t="s">
         <v>11</v>
       </c>
+      <c r="F213" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="G213" s="2" t="s">
-        <v>179</v>
+        <v>271</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5701,7 +5713,7 @@
         <v>5</v>
       </c>
       <c r="B214" t="s">
-        <v>215</v>
+        <v>46</v>
       </c>
       <c r="C214" t="s">
         <v>9</v>
@@ -5710,10 +5722,10 @@
         <v>114</v>
       </c>
       <c r="E214" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>270</v>
+        <v>95</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5721,320 +5733,323 @@
         <v>6</v>
       </c>
       <c r="B215" t="s">
-        <v>271</v>
+        <v>36</v>
       </c>
       <c r="C215" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E215" t="s">
         <v>11</v>
       </c>
+      <c r="F215" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="G215" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="3" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="216" spans="1:7">
-      <c r="A216">
+      <c r="B217" s="3"/>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3"/>
+      <c r="E217" s="3"/>
+      <c r="F217" s="4"/>
+      <c r="G217" s="5"/>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E218" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F218" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G218" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="B216" t="s">
-        <v>273</v>
-      </c>
-      <c r="C216" t="s">
-        <v>9</v>
-      </c>
-      <c r="D216" t="s">
-        <v>114</v>
-      </c>
-      <c r="E216" t="s">
-        <v>11</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7">
-      <c r="A217">
-        <v>8</v>
-      </c>
-      <c r="B217" t="s">
-        <v>275</v>
-      </c>
-      <c r="C217" t="s">
-        <v>37</v>
-      </c>
-      <c r="E217" t="s">
-        <v>11</v>
-      </c>
-      <c r="G217" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7">
-      <c r="A218">
-        <v>9</v>
-      </c>
-      <c r="B218" t="s">
-        <v>277</v>
-      </c>
-      <c r="C218" t="s">
-        <v>33</v>
-      </c>
-      <c r="E218" t="s">
-        <v>11</v>
-      </c>
-      <c r="G218" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219">
+        <v>1</v>
+      </c>
+      <c r="B219" t="s">
+        <v>8</v>
+      </c>
+      <c r="C219" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219" t="s">
         <v>10</v>
       </c>
-      <c r="B219" t="s">
-        <v>240</v>
-      </c>
-      <c r="C219" t="s">
-        <v>157</v>
-      </c>
       <c r="E219" t="s">
         <v>11</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="220" ht="27" spans="1:7">
       <c r="A220">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B220" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C220" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="D220" t="s">
+        <v>114</v>
       </c>
       <c r="E220" t="s">
         <v>11</v>
       </c>
-      <c r="F220" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="G220" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B221" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C221" t="s">
-        <v>33</v>
+        <v>9</v>
+      </c>
+      <c r="D221" t="s">
+        <v>114</v>
       </c>
       <c r="E221" t="s">
         <v>11</v>
       </c>
-      <c r="F221" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="G221" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="222" ht="27" spans="1:7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
       <c r="A222">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B222" t="s">
-        <v>257</v>
+        <v>178</v>
       </c>
       <c r="C222" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="D222" t="s">
+        <v>114</v>
       </c>
       <c r="E222" t="s">
         <v>11</v>
       </c>
-      <c r="F222" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="G222" s="2" t="s">
-        <v>258</v>
+        <v>179</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B223" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="C223" t="s">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="D223" t="s">
+        <v>114</v>
       </c>
       <c r="E223" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B224" t="s">
-        <v>36</v>
+        <v>277</v>
       </c>
       <c r="C224" t="s">
+        <v>18</v>
+      </c>
+      <c r="E224" t="s">
+        <v>11</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225">
+        <v>7</v>
+      </c>
+      <c r="B225" t="s">
+        <v>279</v>
+      </c>
+      <c r="C225" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" t="s">
+        <v>114</v>
+      </c>
+      <c r="E225" t="s">
+        <v>11</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226">
+        <v>8</v>
+      </c>
+      <c r="B226" t="s">
+        <v>281</v>
+      </c>
+      <c r="C226" t="s">
         <v>37</v>
       </c>
-      <c r="E224" t="s">
-        <v>11</v>
-      </c>
-      <c r="F224" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G224" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7">
-      <c r="A226" s="3" t="s">
+      <c r="E226" t="s">
+        <v>11</v>
+      </c>
+      <c r="G226" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B226" s="3"/>
-      <c r="C226" s="3"/>
-      <c r="D226" s="3"/>
-      <c r="E226" s="3"/>
-      <c r="F226" s="4"/>
-      <c r="G226" s="5"/>
     </row>
     <row r="227" spans="1:7">
-      <c r="A227" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B227" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C227" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D227" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E227" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F227" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G227" s="8" t="s">
-        <v>7</v>
+      <c r="A227">
+        <v>9</v>
+      </c>
+      <c r="B227" t="s">
+        <v>283</v>
+      </c>
+      <c r="C227" t="s">
+        <v>33</v>
+      </c>
+      <c r="E227" t="s">
+        <v>11</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>246</v>
       </c>
       <c r="C228" t="s">
-        <v>9</v>
-      </c>
-      <c r="D228" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="E228" t="s">
         <v>11</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B229" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="C229" t="s">
-        <v>14</v>
-      </c>
-      <c r="D229" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E229" t="s">
         <v>11</v>
       </c>
+      <c r="F229" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="G229" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B230" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="C230" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E230" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="231" ht="27" spans="1:7">
       <c r="A231">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B231" t="s">
-        <v>32</v>
+        <v>263</v>
       </c>
       <c r="C231" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E231" t="s">
         <v>11</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B232" t="s">
-        <v>46</v>
+        <v>265</v>
       </c>
       <c r="C232" t="s">
-        <v>9</v>
-      </c>
-      <c r="D232" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="E232" t="s">
         <v>11</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>95</v>
+        <v>266</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B233" t="s">
         <v>36</v>
@@ -6054,7 +6069,7 @@
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -6103,7 +6118,7 @@
         <v>11</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -6111,59 +6126,56 @@
         <v>2</v>
       </c>
       <c r="B238" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C238" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D238" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="E238" t="s">
         <v>11</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="239" ht="27" spans="1:7">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
       <c r="A239">
         <v>3</v>
       </c>
       <c r="B239" t="s">
-        <v>178</v>
+        <v>92</v>
       </c>
       <c r="C239" t="s">
-        <v>9</v>
-      </c>
-      <c r="D239" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="E239" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="240" ht="27" spans="1:7">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
       <c r="A240">
         <v>4</v>
       </c>
       <c r="B240" t="s">
-        <v>171</v>
+        <v>32</v>
       </c>
       <c r="C240" t="s">
-        <v>9</v>
-      </c>
-      <c r="D240" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="E240" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -6171,16 +6183,19 @@
         <v>5</v>
       </c>
       <c r="B241" t="s">
-        <v>275</v>
+        <v>46</v>
       </c>
       <c r="C241" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="D241" t="s">
+        <v>114</v>
       </c>
       <c r="E241" t="s">
         <v>11</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>291</v>
+        <v>95</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -6188,175 +6203,178 @@
         <v>6</v>
       </c>
       <c r="B242" t="s">
-        <v>277</v>
+        <v>36</v>
       </c>
       <c r="C242" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E242" t="s">
         <v>11</v>
       </c>
+      <c r="F242" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="G242" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7">
-      <c r="A243">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B244" s="3"/>
+      <c r="C244" s="3"/>
+      <c r="D244" s="3"/>
+      <c r="E244" s="3"/>
+      <c r="F244" s="4"/>
+      <c r="G244" s="5"/>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D245" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E245" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F245" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G245" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="B243" t="s">
-        <v>240</v>
-      </c>
-      <c r="C243" t="s">
-        <v>157</v>
-      </c>
-      <c r="E243" t="s">
-        <v>11</v>
-      </c>
-      <c r="G243" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7">
-      <c r="A244">
-        <v>8</v>
-      </c>
-      <c r="B244" t="s">
-        <v>273</v>
-      </c>
-      <c r="C244" t="s">
-        <v>9</v>
-      </c>
-      <c r="D244" t="s">
-        <v>114</v>
-      </c>
-      <c r="E244" t="s">
-        <v>11</v>
-      </c>
-      <c r="G244" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7">
-      <c r="A245">
-        <v>9</v>
-      </c>
-      <c r="B245" t="s">
-        <v>92</v>
-      </c>
-      <c r="C245" t="s">
-        <v>30</v>
-      </c>
-      <c r="E245" t="s">
-        <v>27</v>
-      </c>
-      <c r="G245" s="2" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="246" spans="1:7">
       <c r="A246">
+        <v>1</v>
+      </c>
+      <c r="B246" t="s">
+        <v>8</v>
+      </c>
+      <c r="C246" t="s">
+        <v>9</v>
+      </c>
+      <c r="D246" t="s">
         <v>10</v>
       </c>
-      <c r="B246" t="s">
-        <v>252</v>
-      </c>
-      <c r="C246" t="s">
-        <v>30</v>
-      </c>
       <c r="E246" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="247" spans="1:7">
       <c r="A247">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B247" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C247" t="s">
+        <v>9</v>
+      </c>
+      <c r="D247" t="s">
+        <v>114</v>
+      </c>
+      <c r="E247" t="s">
+        <v>11</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="248" ht="27" spans="1:7">
+      <c r="A248">
+        <v>3</v>
+      </c>
+      <c r="B248" t="s">
+        <v>178</v>
+      </c>
+      <c r="C248" t="s">
+        <v>9</v>
+      </c>
+      <c r="D248" t="s">
+        <v>114</v>
+      </c>
+      <c r="E248" t="s">
+        <v>11</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="249" ht="27" spans="1:7">
+      <c r="A249">
+        <v>4</v>
+      </c>
+      <c r="B249" t="s">
+        <v>171</v>
+      </c>
+      <c r="C249" t="s">
+        <v>9</v>
+      </c>
+      <c r="D249" t="s">
+        <v>114</v>
+      </c>
+      <c r="E249" t="s">
+        <v>27</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250">
+        <v>5</v>
+      </c>
+      <c r="B250" t="s">
+        <v>281</v>
+      </c>
+      <c r="C250" t="s">
+        <v>37</v>
+      </c>
+      <c r="E250" t="s">
+        <v>11</v>
+      </c>
+      <c r="G250" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251">
+        <v>6</v>
+      </c>
+      <c r="B251" t="s">
+        <v>283</v>
+      </c>
+      <c r="C251" t="s">
         <v>33</v>
       </c>
-      <c r="E247" t="s">
-        <v>11</v>
-      </c>
-      <c r="F247" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G247" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7">
-      <c r="A248">
-        <v>12</v>
-      </c>
-      <c r="B248" t="s">
-        <v>36</v>
-      </c>
-      <c r="C248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E248" t="s">
-        <v>11</v>
-      </c>
-      <c r="F248" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G248" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7">
-      <c r="A250" s="3" t="s">
+      <c r="E251" t="s">
+        <v>11</v>
+      </c>
+      <c r="G251" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="B250" s="3"/>
-      <c r="C250" s="3"/>
-      <c r="D250" s="3"/>
-      <c r="E250" s="3"/>
-      <c r="F250" s="4"/>
-      <c r="G250" s="5"/>
-    </row>
-    <row r="251" spans="1:7">
-      <c r="A251" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B251" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C251" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D251" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E251" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F251" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G251" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>246</v>
       </c>
       <c r="C252" t="s">
-        <v>9</v>
-      </c>
-      <c r="D252" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="E252" t="s">
         <v>11</v>
@@ -6367,10 +6385,10 @@
     </row>
     <row r="253" spans="1:7">
       <c r="A253">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B253" t="s">
-        <v>46</v>
+        <v>279</v>
       </c>
       <c r="C253" t="s">
         <v>9</v>
@@ -6382,240 +6400,243 @@
         <v>11</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="254" ht="27" spans="1:7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
       <c r="A254">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B254" t="s">
-        <v>178</v>
+        <v>92</v>
       </c>
       <c r="C254" t="s">
-        <v>9</v>
-      </c>
-      <c r="D254" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="E254" t="s">
         <v>27</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="255" ht="27" spans="1:7">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
       <c r="A255">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B255" t="s">
-        <v>171</v>
+        <v>258</v>
       </c>
       <c r="C255" t="s">
-        <v>9</v>
-      </c>
-      <c r="D255" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="E255" t="s">
         <v>27</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B256" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C256" t="s">
-        <v>14</v>
-      </c>
-      <c r="D256" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E256" t="s">
         <v>11</v>
       </c>
+      <c r="F256" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="G256" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="257" spans="1:7">
       <c r="A257">
+        <v>12</v>
+      </c>
+      <c r="B257" t="s">
+        <v>36</v>
+      </c>
+      <c r="C257" t="s">
+        <v>37</v>
+      </c>
+      <c r="E257" t="s">
+        <v>11</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G257" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B259" s="3"/>
+      <c r="C259" s="3"/>
+      <c r="D259" s="3"/>
+      <c r="E259" s="3"/>
+      <c r="F259" s="4"/>
+      <c r="G259" s="5"/>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B260" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C260" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D260" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E260" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F260" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B257" t="s">
-        <v>25</v>
-      </c>
-      <c r="C257" t="s">
-        <v>26</v>
-      </c>
-      <c r="E257" t="s">
-        <v>11</v>
-      </c>
-      <c r="G257" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7">
-      <c r="A258">
+      <c r="G260" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="B258" t="s">
-        <v>304</v>
-      </c>
-      <c r="C258" t="s">
-        <v>14</v>
-      </c>
-      <c r="E258" t="s">
-        <v>11</v>
-      </c>
-      <c r="G258" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7">
-      <c r="A259">
-        <v>8</v>
-      </c>
-      <c r="B259" t="s">
-        <v>23</v>
-      </c>
-      <c r="C259" t="s">
-        <v>21</v>
-      </c>
-      <c r="E259" t="s">
-        <v>27</v>
-      </c>
-      <c r="G259" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7">
-      <c r="A260">
-        <v>9</v>
-      </c>
-      <c r="B260" t="s">
-        <v>20</v>
-      </c>
-      <c r="C260" t="s">
-        <v>21</v>
-      </c>
-      <c r="E260" t="s">
-        <v>11</v>
-      </c>
-      <c r="G260" s="2" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="261" spans="1:7">
       <c r="A261">
+        <v>1</v>
+      </c>
+      <c r="B261" t="s">
+        <v>8</v>
+      </c>
+      <c r="C261" t="s">
+        <v>9</v>
+      </c>
+      <c r="D261" t="s">
         <v>10</v>
       </c>
-      <c r="B261" t="s">
-        <v>92</v>
-      </c>
-      <c r="C261" t="s">
-        <v>30</v>
-      </c>
       <c r="E261" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="262" spans="1:7">
       <c r="A262">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B262" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C262" t="s">
-        <v>33</v>
+        <v>9</v>
+      </c>
+      <c r="D262" t="s">
+        <v>114</v>
       </c>
       <c r="E262" t="s">
         <v>11</v>
       </c>
-      <c r="F262" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="G262" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="263" ht="27" spans="1:7">
+      <c r="A263">
+        <v>3</v>
+      </c>
+      <c r="B263" t="s">
+        <v>178</v>
+      </c>
+      <c r="C263" t="s">
+        <v>9</v>
+      </c>
+      <c r="D263" t="s">
+        <v>114</v>
+      </c>
+      <c r="E263" t="s">
+        <v>27</v>
+      </c>
+      <c r="G263" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="264" ht="27" spans="1:7">
+      <c r="A264">
+        <v>4</v>
+      </c>
+      <c r="B264" t="s">
+        <v>171</v>
+      </c>
+      <c r="C264" t="s">
+        <v>9</v>
+      </c>
+      <c r="D264" t="s">
+        <v>114</v>
+      </c>
+      <c r="E264" t="s">
+        <v>27</v>
+      </c>
+      <c r="G264" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265">
+        <v>5</v>
+      </c>
+      <c r="B265" t="s">
+        <v>13</v>
+      </c>
+      <c r="C265" t="s">
+        <v>14</v>
+      </c>
+      <c r="D265" t="s">
+        <v>15</v>
+      </c>
+      <c r="E265" t="s">
+        <v>11</v>
+      </c>
+      <c r="G265" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266">
+        <v>6</v>
+      </c>
+      <c r="B266" t="s">
+        <v>25</v>
+      </c>
+      <c r="C266" t="s">
+        <v>26</v>
+      </c>
+      <c r="E266" t="s">
+        <v>11</v>
+      </c>
+      <c r="G266" s="2" t="s">
         <v>309</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7">
-      <c r="A263">
-        <v>12</v>
-      </c>
-      <c r="B263" t="s">
-        <v>36</v>
-      </c>
-      <c r="C263" t="s">
-        <v>37</v>
-      </c>
-      <c r="E263" t="s">
-        <v>11</v>
-      </c>
-      <c r="F263" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G263" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7">
-      <c r="A265" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B265" s="3"/>
-      <c r="C265" s="3"/>
-      <c r="D265" s="3"/>
-      <c r="E265" s="3"/>
-      <c r="F265" s="4"/>
-      <c r="G265" s="5"/>
-    </row>
-    <row r="266" spans="1:7">
-      <c r="A266" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B266" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C266" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D266" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E266" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F266" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G266" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="267" spans="1:7">
       <c r="A267">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B267" t="s">
-        <v>8</v>
+        <v>310</v>
       </c>
       <c r="C267" t="s">
-        <v>9</v>
-      </c>
-      <c r="D267" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E267" t="s">
         <v>11</v>
@@ -6626,19 +6647,16 @@
     </row>
     <row r="268" spans="1:7">
       <c r="A268">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B268" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C268" t="s">
-        <v>14</v>
-      </c>
-      <c r="D268" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E268" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G268" s="2" t="s">
         <v>312</v>
@@ -6646,16 +6664,16 @@
     </row>
     <row r="269" spans="1:7">
       <c r="A269">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B269" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="C269" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E269" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G269" s="2" t="s">
         <v>313</v>
@@ -6663,19 +6681,16 @@
     </row>
     <row r="270" spans="1:7">
       <c r="A270">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B270" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="C270" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E270" t="s">
-        <v>11</v>
-      </c>
-      <c r="F270" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G270" s="2" t="s">
         <v>314</v>
@@ -6683,27 +6698,27 @@
     </row>
     <row r="271" spans="1:7">
       <c r="A271">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B271" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C271" t="s">
-        <v>9</v>
-      </c>
-      <c r="D271" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="E271" t="s">
         <v>11</v>
       </c>
+      <c r="F271" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="G271" s="2" t="s">
-        <v>95</v>
+        <v>315</v>
       </c>
     </row>
     <row r="272" spans="1:7">
       <c r="A272">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B272" t="s">
         <v>36</v>
@@ -6723,7 +6738,7 @@
     </row>
     <row r="274" spans="1:7">
       <c r="A274" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -6772,7 +6787,7 @@
         <v>11</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -6780,59 +6795,56 @@
         <v>2</v>
       </c>
       <c r="B277" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C277" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D277" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="E277" t="s">
         <v>11</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="278" ht="27" spans="1:7">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
       <c r="A278">
         <v>3</v>
       </c>
       <c r="B278" t="s">
-        <v>178</v>
+        <v>92</v>
       </c>
       <c r="C278" t="s">
-        <v>9</v>
-      </c>
-      <c r="D278" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="E278" t="s">
         <v>27</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="279" ht="27" spans="1:7">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
       <c r="A279">
         <v>4</v>
       </c>
       <c r="B279" t="s">
-        <v>171</v>
+        <v>32</v>
       </c>
       <c r="C279" t="s">
-        <v>9</v>
-      </c>
-      <c r="D279" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="E279" t="s">
         <v>11</v>
       </c>
+      <c r="F279" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="G279" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -6840,16 +6852,19 @@
         <v>5</v>
       </c>
       <c r="B280" t="s">
-        <v>275</v>
+        <v>46</v>
       </c>
       <c r="C280" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="D280" t="s">
+        <v>114</v>
       </c>
       <c r="E280" t="s">
         <v>11</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>319</v>
+        <v>95</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -6857,95 +6872,81 @@
         <v>6</v>
       </c>
       <c r="B281" t="s">
-        <v>277</v>
+        <v>36</v>
       </c>
       <c r="C281" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E281" t="s">
         <v>11</v>
       </c>
+      <c r="F281" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="G281" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7">
-      <c r="A282">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B283" s="3"/>
+      <c r="C283" s="3"/>
+      <c r="D283" s="3"/>
+      <c r="E283" s="3"/>
+      <c r="F283" s="4"/>
+      <c r="G283" s="5"/>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C284" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D284" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E284" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F284" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G284" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="B282" t="s">
-        <v>240</v>
-      </c>
-      <c r="C282" t="s">
-        <v>157</v>
-      </c>
-      <c r="E282" t="s">
-        <v>11</v>
-      </c>
-      <c r="G282" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7">
-      <c r="A283">
-        <v>8</v>
-      </c>
-      <c r="B283" t="s">
-        <v>273</v>
-      </c>
-      <c r="C283" t="s">
-        <v>9</v>
-      </c>
-      <c r="D283" t="s">
-        <v>114</v>
-      </c>
-      <c r="E283" t="s">
-        <v>11</v>
-      </c>
-      <c r="G283" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7">
-      <c r="A284">
-        <v>9</v>
-      </c>
-      <c r="B284" t="s">
-        <v>92</v>
-      </c>
-      <c r="C284" t="s">
-        <v>30</v>
-      </c>
-      <c r="E284" t="s">
-        <v>27</v>
-      </c>
-      <c r="G284" s="2" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="285" spans="1:7">
       <c r="A285">
+        <v>1</v>
+      </c>
+      <c r="B285" t="s">
+        <v>8</v>
+      </c>
+      <c r="C285" t="s">
+        <v>9</v>
+      </c>
+      <c r="D285" t="s">
         <v>10</v>
       </c>
-      <c r="B285" t="s">
-        <v>252</v>
-      </c>
-      <c r="C285" t="s">
-        <v>30</v>
-      </c>
       <c r="E285" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="286" spans="1:7">
       <c r="A286">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B286" t="s">
-        <v>325</v>
+        <v>46</v>
       </c>
       <c r="C286" t="s">
         <v>9</v>
@@ -6957,149 +6958,160 @@
         <v>11</v>
       </c>
       <c r="G286" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="287" ht="27" spans="1:7">
+      <c r="A287">
+        <v>3</v>
+      </c>
+      <c r="B287" t="s">
+        <v>178</v>
+      </c>
+      <c r="C287" t="s">
+        <v>9</v>
+      </c>
+      <c r="D287" t="s">
+        <v>114</v>
+      </c>
+      <c r="E287" t="s">
+        <v>27</v>
+      </c>
+      <c r="G287" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="288" ht="27" spans="1:7">
+      <c r="A288">
+        <v>4</v>
+      </c>
+      <c r="B288" t="s">
+        <v>171</v>
+      </c>
+      <c r="C288" t="s">
+        <v>9</v>
+      </c>
+      <c r="D288" t="s">
+        <v>114</v>
+      </c>
+      <c r="E288" t="s">
+        <v>11</v>
+      </c>
+      <c r="G288" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289">
+        <v>5</v>
+      </c>
+      <c r="B289" t="s">
+        <v>281</v>
+      </c>
+      <c r="C289" t="s">
+        <v>37</v>
+      </c>
+      <c r="E289" t="s">
+        <v>11</v>
+      </c>
+      <c r="G289" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290">
+        <v>6</v>
+      </c>
+      <c r="B290" t="s">
+        <v>283</v>
+      </c>
+      <c r="C290" t="s">
+        <v>33</v>
+      </c>
+      <c r="E290" t="s">
+        <v>11</v>
+      </c>
+      <c r="G290" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
-      <c r="A287">
-        <v>12</v>
-      </c>
-      <c r="B287" t="s">
-        <v>32</v>
-      </c>
-      <c r="C287" t="s">
-        <v>33</v>
-      </c>
-      <c r="E287" t="s">
-        <v>11</v>
-      </c>
-      <c r="F287" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G287" s="2" t="s">
+    <row r="291" spans="1:7">
+      <c r="A291">
+        <v>7</v>
+      </c>
+      <c r="B291" t="s">
+        <v>246</v>
+      </c>
+      <c r="C291" t="s">
+        <v>157</v>
+      </c>
+      <c r="E291" t="s">
+        <v>11</v>
+      </c>
+      <c r="G291" s="2" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7">
-      <c r="A288">
-        <v>13</v>
-      </c>
-      <c r="B288" t="s">
-        <v>36</v>
-      </c>
-      <c r="C288" t="s">
-        <v>37</v>
-      </c>
-      <c r="E288" t="s">
-        <v>11</v>
-      </c>
-      <c r="F288" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G288" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7">
-      <c r="A290" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B290" s="3"/>
-      <c r="C290" s="3"/>
-      <c r="D290" s="3"/>
-      <c r="E290" s="3"/>
-      <c r="F290" s="4"/>
-      <c r="G290" s="5"/>
-    </row>
-    <row r="291" spans="1:7">
-      <c r="A291" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B291" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C291" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D291" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E291" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F291" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G291" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="292" spans="1:7">
       <c r="A292">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B292" t="s">
-        <v>8</v>
+        <v>279</v>
       </c>
       <c r="C292" t="s">
         <v>9</v>
       </c>
       <c r="D292" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="E292" t="s">
         <v>11</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="293" spans="1:7">
       <c r="A293">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B293" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="C293" t="s">
-        <v>9</v>
-      </c>
-      <c r="D293" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="E293" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>147</v>
+        <v>329</v>
       </c>
     </row>
     <row r="294" spans="1:7">
       <c r="A294">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B294" t="s">
-        <v>46</v>
+        <v>258</v>
       </c>
       <c r="C294" t="s">
-        <v>9</v>
-      </c>
-      <c r="D294" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="E294" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>95</v>
+        <v>330</v>
       </c>
     </row>
     <row r="295" spans="1:7">
       <c r="A295">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B295" t="s">
-        <v>169</v>
+        <v>331</v>
       </c>
       <c r="C295" t="s">
         <v>9</v>
@@ -7111,180 +7123,189 @@
         <v>11</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>170</v>
+        <v>332</v>
       </c>
     </row>
     <row r="296" spans="1:7">
       <c r="A296">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B296" t="s">
-        <v>240</v>
+        <v>32</v>
       </c>
       <c r="C296" t="s">
-        <v>157</v>
+        <v>33</v>
       </c>
       <c r="E296" t="s">
         <v>11</v>
       </c>
+      <c r="F296" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="G296" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="297" spans="1:7">
       <c r="A297">
+        <v>13</v>
+      </c>
+      <c r="B297" t="s">
+        <v>36</v>
+      </c>
+      <c r="C297" t="s">
+        <v>37</v>
+      </c>
+      <c r="E297" t="s">
+        <v>11</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G297" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B299" s="3"/>
+      <c r="C299" s="3"/>
+      <c r="D299" s="3"/>
+      <c r="E299" s="3"/>
+      <c r="F299" s="4"/>
+      <c r="G299" s="5"/>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B300" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C300" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D300" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E300" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F300" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B297" t="s">
-        <v>331</v>
-      </c>
-      <c r="C297" t="s">
-        <v>33</v>
-      </c>
-      <c r="E297" t="s">
-        <v>11</v>
-      </c>
-      <c r="G297" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7">
-      <c r="A298">
+      <c r="G300" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="B298" t="s">
-        <v>333</v>
-      </c>
-      <c r="C298" t="s">
-        <v>70</v>
-      </c>
-      <c r="E298" t="s">
-        <v>11</v>
-      </c>
-      <c r="G298" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7">
-      <c r="A299">
-        <v>8</v>
-      </c>
-      <c r="B299" t="s">
-        <v>335</v>
-      </c>
-      <c r="C299" t="s">
-        <v>70</v>
-      </c>
-      <c r="E299" t="s">
-        <v>11</v>
-      </c>
-      <c r="G299" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7">
-      <c r="A300">
-        <v>9</v>
-      </c>
-      <c r="B300" t="s">
-        <v>92</v>
-      </c>
-      <c r="C300" t="s">
-        <v>30</v>
-      </c>
-      <c r="E300" t="s">
-        <v>27</v>
-      </c>
-      <c r="G300" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="301" spans="1:7">
       <c r="A301">
+        <v>1</v>
+      </c>
+      <c r="B301" t="s">
+        <v>8</v>
+      </c>
+      <c r="C301" t="s">
+        <v>9</v>
+      </c>
+      <c r="D301" t="s">
         <v>10</v>
       </c>
-      <c r="B301" t="s">
-        <v>32</v>
-      </c>
-      <c r="C301" t="s">
-        <v>33</v>
-      </c>
       <c r="E301" t="s">
         <v>11</v>
       </c>
-      <c r="F301" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="G301" s="2" t="s">
-        <v>205</v>
+        <v>335</v>
       </c>
     </row>
     <row r="302" spans="1:7">
       <c r="A302">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B302" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="C302" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="D302" t="s">
+        <v>114</v>
       </c>
       <c r="E302" t="s">
         <v>11</v>
       </c>
-      <c r="F302" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="G302" s="2" t="s">
-        <v>39</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303">
+        <v>3</v>
+      </c>
+      <c r="B303" t="s">
+        <v>46</v>
+      </c>
+      <c r="C303" t="s">
+        <v>9</v>
+      </c>
+      <c r="D303" t="s">
+        <v>114</v>
+      </c>
+      <c r="E303" t="s">
+        <v>11</v>
+      </c>
+      <c r="G303" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="304" spans="1:7">
-      <c r="A304" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B304" s="3"/>
-      <c r="C304" s="3"/>
-      <c r="D304" s="3"/>
-      <c r="E304" s="3"/>
-      <c r="F304" s="4"/>
-      <c r="G304" s="5"/>
+      <c r="A304">
+        <v>4</v>
+      </c>
+      <c r="B304" t="s">
+        <v>169</v>
+      </c>
+      <c r="C304" t="s">
+        <v>9</v>
+      </c>
+      <c r="D304" t="s">
+        <v>114</v>
+      </c>
+      <c r="E304" t="s">
+        <v>11</v>
+      </c>
+      <c r="G304" s="2" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="305" spans="1:7">
-      <c r="A305" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B305" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C305" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D305" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E305" s="6" t="s">
+      <c r="A305">
         <v>5</v>
       </c>
-      <c r="F305" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G305" s="8" t="s">
-        <v>7</v>
+      <c r="B305" t="s">
+        <v>246</v>
+      </c>
+      <c r="C305" t="s">
+        <v>157</v>
+      </c>
+      <c r="E305" t="s">
+        <v>11</v>
+      </c>
+      <c r="G305" s="2" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="306" spans="1:7">
       <c r="A306">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B306" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="C306" t="s">
-        <v>9</v>
-      </c>
-      <c r="D306" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E306" t="s">
         <v>11</v>
@@ -7295,90 +7316,81 @@
     </row>
     <row r="307" spans="1:7">
       <c r="A307">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B307" t="s">
-        <v>46</v>
+        <v>339</v>
       </c>
       <c r="C307" t="s">
-        <v>9</v>
-      </c>
-      <c r="D307" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="E307" t="s">
         <v>11</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="308" ht="27" spans="1:7">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
       <c r="A308">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B308" t="s">
-        <v>178</v>
+        <v>341</v>
       </c>
       <c r="C308" t="s">
-        <v>9</v>
-      </c>
-      <c r="D308" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="E308" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="309" ht="27" spans="1:7">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
       <c r="A309">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B309" t="s">
-        <v>171</v>
+        <v>92</v>
       </c>
       <c r="C309" t="s">
-        <v>9</v>
-      </c>
-      <c r="D309" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="E309" t="s">
         <v>27</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>340</v>
+        <v>210</v>
       </c>
     </row>
     <row r="310" spans="1:7">
       <c r="A310">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B310" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="C310" t="s">
-        <v>9</v>
-      </c>
-      <c r="D310" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="E310" t="s">
         <v>11</v>
       </c>
+      <c r="F310" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="G310" s="2" t="s">
-        <v>115</v>
+        <v>211</v>
       </c>
     </row>
     <row r="311" spans="1:7">
       <c r="A311">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B311" t="s">
-        <v>232</v>
+        <v>36</v>
       </c>
       <c r="C311" t="s">
         <v>37</v>
@@ -7386,106 +7398,260 @@
       <c r="E311" t="s">
         <v>11</v>
       </c>
+      <c r="F311" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="G311" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7">
-      <c r="A312">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B313" s="3"/>
+      <c r="C313" s="3"/>
+      <c r="D313" s="3"/>
+      <c r="E313" s="3"/>
+      <c r="F313" s="4"/>
+      <c r="G313" s="5"/>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B314" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C314" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D314" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E314" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F314" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G314" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="B312" t="s">
-        <v>342</v>
-      </c>
-      <c r="C312" t="s">
-        <v>33</v>
-      </c>
-      <c r="E312" t="s">
-        <v>11</v>
-      </c>
-      <c r="G312" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7">
-      <c r="A313">
-        <v>8</v>
-      </c>
-      <c r="B313" t="s">
-        <v>32</v>
-      </c>
-      <c r="C313" t="s">
-        <v>33</v>
-      </c>
-      <c r="E313" t="s">
-        <v>11</v>
-      </c>
-      <c r="F313" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G313" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7">
-      <c r="A314">
-        <v>9</v>
-      </c>
-      <c r="B314" t="s">
-        <v>257</v>
-      </c>
-      <c r="C314" t="s">
-        <v>37</v>
-      </c>
-      <c r="E314" t="s">
-        <v>11</v>
-      </c>
-      <c r="F314" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G314" s="2" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="315" spans="1:7">
       <c r="A315">
+        <v>1</v>
+      </c>
+      <c r="B315" t="s">
+        <v>8</v>
+      </c>
+      <c r="C315" t="s">
+        <v>9</v>
+      </c>
+      <c r="D315" t="s">
         <v>10</v>
       </c>
-      <c r="B315" t="s">
-        <v>345</v>
-      </c>
-      <c r="C315" t="s">
-        <v>33</v>
-      </c>
       <c r="E315" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="316" spans="1:7">
       <c r="A316">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B316" t="s">
+        <v>46</v>
+      </c>
+      <c r="C316" t="s">
+        <v>9</v>
+      </c>
+      <c r="D316" t="s">
+        <v>114</v>
+      </c>
+      <c r="E316" t="s">
+        <v>11</v>
+      </c>
+      <c r="G316" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="317" ht="27" spans="1:7">
+      <c r="A317">
+        <v>3</v>
+      </c>
+      <c r="B317" t="s">
+        <v>178</v>
+      </c>
+      <c r="C317" t="s">
+        <v>9</v>
+      </c>
+      <c r="D317" t="s">
+        <v>114</v>
+      </c>
+      <c r="E317" t="s">
+        <v>27</v>
+      </c>
+      <c r="G317" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="318" ht="27" spans="1:7">
+      <c r="A318">
+        <v>4</v>
+      </c>
+      <c r="B318" t="s">
+        <v>171</v>
+      </c>
+      <c r="C318" t="s">
+        <v>9</v>
+      </c>
+      <c r="D318" t="s">
+        <v>114</v>
+      </c>
+      <c r="E318" t="s">
+        <v>27</v>
+      </c>
+      <c r="G318" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319">
+        <v>5</v>
+      </c>
+      <c r="B319" t="s">
+        <v>113</v>
+      </c>
+      <c r="C319" t="s">
+        <v>9</v>
+      </c>
+      <c r="D319" t="s">
+        <v>114</v>
+      </c>
+      <c r="E319" t="s">
+        <v>11</v>
+      </c>
+      <c r="G319" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320">
+        <v>6</v>
+      </c>
+      <c r="B320" t="s">
+        <v>238</v>
+      </c>
+      <c r="C320" t="s">
+        <v>37</v>
+      </c>
+      <c r="E320" t="s">
+        <v>11</v>
+      </c>
+      <c r="G320" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321">
+        <v>7</v>
+      </c>
+      <c r="B321" t="s">
+        <v>348</v>
+      </c>
+      <c r="C321" t="s">
+        <v>33</v>
+      </c>
+      <c r="E321" t="s">
+        <v>11</v>
+      </c>
+      <c r="G321" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322">
+        <v>8</v>
+      </c>
+      <c r="B322" t="s">
+        <v>32</v>
+      </c>
+      <c r="C322" t="s">
+        <v>33</v>
+      </c>
+      <c r="E322" t="s">
+        <v>11</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G322" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323">
+        <v>9</v>
+      </c>
+      <c r="B323" t="s">
+        <v>263</v>
+      </c>
+      <c r="C323" t="s">
+        <v>37</v>
+      </c>
+      <c r="E323" t="s">
+        <v>11</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G323" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324">
+        <v>10</v>
+      </c>
+      <c r="B324" t="s">
+        <v>351</v>
+      </c>
+      <c r="C324" t="s">
+        <v>33</v>
+      </c>
+      <c r="E324" t="s">
+        <v>27</v>
+      </c>
+      <c r="G324" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325">
+        <v>11</v>
+      </c>
+      <c r="B325" t="s">
         <v>36</v>
       </c>
-      <c r="C316" t="s">
+      <c r="C325" t="s">
         <v>37</v>
       </c>
-      <c r="E316" t="s">
-        <v>11</v>
-      </c>
-      <c r="F316" s="1" t="s">
+      <c r="E325" t="s">
+        <v>11</v>
+      </c>
+      <c r="F325" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G316" s="2" t="s">
+      <c r="G325" s="2" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A13:G13"/>
     <mergeCell ref="A21:G21"/>
@@ -7500,21 +7666,22 @@
     <mergeCell ref="A117:G117"/>
     <mergeCell ref="A128:G128"/>
     <mergeCell ref="A135:G135"/>
-    <mergeCell ref="A151:G151"/>
-    <mergeCell ref="A159:G159"/>
-    <mergeCell ref="A167:G167"/>
-    <mergeCell ref="A199:G199"/>
+    <mergeCell ref="A144:G144"/>
+    <mergeCell ref="A160:G160"/>
+    <mergeCell ref="A168:G168"/>
+    <mergeCell ref="A176:G176"/>
     <mergeCell ref="A208:G208"/>
-    <mergeCell ref="A226:G226"/>
+    <mergeCell ref="A217:G217"/>
     <mergeCell ref="A235:G235"/>
-    <mergeCell ref="A250:G250"/>
-    <mergeCell ref="A265:G265"/>
+    <mergeCell ref="A244:G244"/>
+    <mergeCell ref="A259:G259"/>
     <mergeCell ref="A274:G274"/>
-    <mergeCell ref="A290:G290"/>
-    <mergeCell ref="A304:G304"/>
+    <mergeCell ref="A283:G283"/>
+    <mergeCell ref="A299:G299"/>
+    <mergeCell ref="A313:G313"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E6 E7 E8 E9 E10 E11 E12 E18 E19 E20 E21 E22 E28 E35 E36 E37 E38 E39 E45 E46 E47 E54 E55 E56 E59 E60 E61 E64 E65 E88 E89 E90 E91 E92 E93 E96 E97 E98 E99 E100 E103 E104 E105 E106 E107 E108 E109 E110 E111 E112 E113 E114 E115 E116 E119 E120 E121 E122 E123 E124 E125 E126 E127 E130 E131 E132 E133 E137 E138 E139 E140 E141 E142 E143 E144 E145 E146 E147 E148 E149 E153 E154 E155 E156 E157 E158 E161 E162 E163 E164 E165 E169 E170 E171 E172 E173 E174 E175 E176 E177 E178 E179 E180 E181 E182 E183 E184 E185 E186 E187 E188 E189 E190 E191 E192 E193 E194 E195 E196 E197 E198 E201 E202 E203 E204 E205 E206 E210 E211 E212 E213 E214 E215 E216 E217 E218 E219 E220 E221 E222 E223 E224 E225 E228 E229 E230 E231 E232 E233 E234 E237 E238 E239 E240 E241 E242 E243 E244 E245 E246 E247 E248 E252 E253 E254 E255 E256 E257 E258 E259 E260 E261 E262 E263 E267 E268 E269 E270 E271 E272 E276 E277 E278 E279 E280 E281 E282 E283 E284 E285 E286 E287 E288 E292 E293 E294 E295 E296 E297 E298 E299 E300 E301 E302 E306 E307 E308 E309 E310 E311 E312 E313 E314 E315 E316 E3:E4 E15:E17 E25:E27 E29:E34 E40:E44 E51:E53 E62:E63 E69:E71 E72:E73 E77:E79 E80:E81 E85:E87">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E6 E7 E8 E9 E10 E11 E12 E18 E19 E20 E21 E22 E28 E35 E36 E37 E38 E39 E45 E46 E47 E54 E55 E56 E59 E60 E61 E64 E65 E88 E89 E90 E91 E92 E93 E96 E97 E98 E99 E100 E103 E104 E105 E106 E107 E108 E109 E110 E111 E112 E113 E114 E115 E116 E119 E120 E121 E122 E123 E124 E125 E126 E127 E130 E131 E132 E133 E137 E138 E139 E140 E141 E142 E143 E146 E147 E148 E149 E150 E151 E152 E153 E154 E155 E156 E157 E158 E162 E163 E164 E165 E166 E167 E170 E171 E172 E173 E174 E178 E179 E180 E181 E182 E183 E184 E185 E186 E187 E188 E189 E190 E191 E192 E193 E194 E195 E196 E197 E198 E199 E200 E201 E202 E203 E204 E205 E206 E207 E210 E211 E212 E213 E214 E215 E219 E220 E221 E222 E223 E224 E225 E226 E227 E228 E229 E230 E231 E232 E233 E234 E237 E238 E239 E240 E241 E242 E243 E246 E247 E248 E249 E250 E251 E252 E253 E254 E255 E256 E257 E261 E262 E263 E264 E265 E266 E267 E268 E269 E270 E271 E272 E276 E277 E278 E279 E280 E281 E285 E286 E287 E288 E289 E290 E291 E292 E293 E294 E295 E296 E297 E301 E302 E303 E304 E305 E306 E307 E308 E309 E310 E311 E315 E316 E317 E318 E319 E320 E321 E322 E323 E324 E325 E3:E4 E15:E17 E25:E27 E29:E34 E40:E44 E51:E53 E62:E63 E69:E71 E72:E73 E77:E79 E80:E81 E85:E87">
       <formula1>"否,是"</formula1>
     </dataValidation>
   </dataValidations>
